--- a/diary/2017-3-18(L).xlsx
+++ b/diary/2017-3-18(L).xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.66</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
       </c>
       <c r="D15" s="1">
         <f>SUM(D2:D13)</f>
-        <v>98.56</v>
+        <v>99.23</v>
       </c>
     </row>
   </sheetData>
